--- a/работа.xlsx
+++ b/работа.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="150">
   <si>
     <t>процесс</t>
   </si>
@@ -499,16 +499,19 @@
     <t>сброс данныз в бд + сброс индексы</t>
   </si>
   <si>
-    <t>components router params type = content</t>
-  </si>
-  <si>
     <t>делать валидацию что body совпадает с ожиданиемым интерфейсом</t>
   </si>
   <si>
-    <t>components router params type = var</t>
-  </si>
-  <si>
     <t>проверять каждый объект что он валиден и существует переменные могут не передаваться</t>
+  </si>
+  <si>
+    <t>баг body пустой объект</t>
+  </si>
+  <si>
+    <t>components  params type = content</t>
+  </si>
+  <si>
+    <t>components  params type = var</t>
   </si>
 </sst>
 </file>
@@ -1154,10 +1157,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:L63"/>
+  <dimension ref="A1:L64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1211,7 +1214,7 @@
       </c>
       <c r="F2" s="21"/>
     </row>
-    <row r="3" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>10</v>
       </c>
@@ -1247,7 +1250,7 @@
       </c>
       <c r="F4" s="21"/>
     </row>
-    <row r="5" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>9</v>
       </c>
@@ -1283,7 +1286,7 @@
       </c>
       <c r="F6" s="21"/>
     </row>
-    <row r="7" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>13</v>
       </c>
@@ -1337,7 +1340,7 @@
       </c>
       <c r="F9" s="21"/>
     </row>
-    <row r="10" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>15</v>
       </c>
@@ -1468,7 +1471,7 @@
       <c r="F17" s="22"/>
       <c r="G17" s="19"/>
     </row>
-    <row r="18" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
         <v>72</v>
       </c>
@@ -1761,7 +1764,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="2" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
         <v>58</v>
       </c>
@@ -1779,7 +1782,7 @@
       </c>
       <c r="F34" s="20"/>
     </row>
-    <row r="35" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>100</v>
       </c>
@@ -1998,7 +2001,7 @@
       </c>
       <c r="F49" s="6"/>
     </row>
-    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="24" t="s">
         <v>59</v>
       </c>
@@ -2169,18 +2172,26 @@
     </row>
     <row r="62" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F62" s="5" t="s">
         <v>145</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F63" s="35" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="F63" s="35" t="s">
-        <v>148</v>
+      <c r="B64" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/работа.xlsx
+++ b/работа.xlsx
@@ -13,7 +13,7 @@
     <sheet name="Лист1" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">общее!$C$1:$C$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">общее!$C$1:$C$64</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="150">
   <si>
     <t>процесс</t>
   </si>
@@ -475,9 +475,6 @@
     <t>webSocket chat</t>
   </si>
   <si>
-    <t>валидация web socket</t>
-  </si>
-  <si>
     <t>router style</t>
   </si>
   <si>
@@ -505,13 +502,16 @@
     <t>проверять каждый объект что он валиден и существует переменные могут не передаваться</t>
   </si>
   <si>
-    <t>баг body пустой объект</t>
-  </si>
-  <si>
     <t>components  params type = content</t>
   </si>
   <si>
     <t>components  params type = var</t>
+  </si>
+  <si>
+    <t>валидация web socket проверить на фронте!</t>
+  </si>
+  <si>
+    <t>полный функ компонентов</t>
   </si>
 </sst>
 </file>
@@ -1160,7 +1160,7 @@
   <dimension ref="A1:L64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1962,7 +1962,7 @@
         <v>135</v>
       </c>
       <c r="F47" s="32" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="F48" s="6"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="24" t="s">
         <v>26</v>
       </c>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="F49" s="6"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="24" t="s">
         <v>59</v>
       </c>
@@ -2019,7 +2019,7 @@
       </c>
       <c r="F50" s="7"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="28" t="s">
         <v>117</v>
       </c>
@@ -2031,7 +2031,7 @@
       <c r="E51" s="27"/>
       <c r="F51" s="28"/>
     </row>
-    <row r="52" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>62</v>
       </c>
@@ -2051,7 +2051,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>65</v>
       </c>
@@ -2069,7 +2069,7 @@
       </c>
       <c r="F53" s="38"/>
     </row>
-    <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="25" t="s">
         <v>35</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="29" t="s">
         <v>119</v>
       </c>
@@ -2099,9 +2099,9 @@
       <c r="E55" s="29"/>
       <c r="F55" s="30"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B56" s="36"/>
       <c r="C56" s="36" t="s">
@@ -2111,7 +2111,7 @@
       <c r="E56" s="36"/>
       <c r="F56" s="37"/>
     </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>57</v>
       </c>
@@ -2122,12 +2122,12 @@
       <c r="D57" s="12"/>
       <c r="E57" s="12"/>
       <c r="F57" s="13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="36" t="s">
         <v>139</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="36" t="s">
-        <v>140</v>
       </c>
       <c r="B58" s="36"/>
       <c r="C58" s="36" t="s">
@@ -2137,17 +2137,23 @@
       <c r="E58" s="36"/>
       <c r="F58" s="37"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="36" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="36" t="s">
+      <c r="B60" s="36" t="s">
         <v>142</v>
-      </c>
-      <c r="B60" s="36" t="s">
-        <v>143</v>
       </c>
       <c r="C60" s="36" t="s">
         <v>4</v>
@@ -2156,12 +2162,12 @@
       <c r="E60" s="36"/>
       <c r="F60" s="37"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B61" s="36" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C61" s="36" t="s">
         <v>4</v>
@@ -2170,32 +2176,29 @@
       <c r="E61" s="36"/>
       <c r="F61" s="37"/>
     </row>
-    <row r="62" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F62" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F63" s="35" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="F63" s="35" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>147</v>
-      </c>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B64" s="3" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C57">
+  <autoFilter ref="C1:C64">
     <filterColumn colId="0">
       <filters blank="1">
         <filter val="возможные баги"/>

--- a/работа.xlsx
+++ b/работа.xlsx
@@ -1160,7 +1160,7 @@
   <dimension ref="A1:L64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/работа.xlsx
+++ b/работа.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="152">
   <si>
     <t>процесс</t>
   </si>
@@ -513,12 +513,18 @@
   <si>
     <t>полный функ компонентов</t>
   </si>
+  <si>
+    <t xml:space="preserve">categories </t>
+  </si>
+  <si>
+    <t xml:space="preserve">конечные точки  post, update </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -579,14 +585,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -714,7 +712,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -786,12 +784,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -815,9 +807,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1160,7 +1149,7 @@
   <dimension ref="A1:L64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1532,7 +1521,7 @@
         <v>7</v>
       </c>
       <c r="F21" s="21"/>
-      <c r="L21" s="31"/>
+      <c r="L21" s="29"/>
     </row>
     <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
@@ -1551,7 +1540,7 @@
         <v>7</v>
       </c>
       <c r="F22" s="21"/>
-      <c r="L22" s="31"/>
+      <c r="L22" s="29"/>
     </row>
     <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
@@ -1570,7 +1559,7 @@
         <v>7</v>
       </c>
       <c r="F23" s="21"/>
-      <c r="L23" s="31"/>
+      <c r="L23" s="29"/>
     </row>
     <row r="24" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
@@ -1591,7 +1580,7 @@
       <c r="F24" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="L24" s="31"/>
+      <c r="L24" s="29"/>
     </row>
     <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
@@ -1612,7 +1601,7 @@
       <c r="F25" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="L25" s="31"/>
+      <c r="L25" s="29"/>
     </row>
     <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
@@ -1631,7 +1620,7 @@
         <v>7</v>
       </c>
       <c r="F26" s="21"/>
-      <c r="L26" s="31"/>
+      <c r="L26" s="29"/>
     </row>
     <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
@@ -1650,7 +1639,7 @@
         <v>7</v>
       </c>
       <c r="F27" s="21"/>
-      <c r="L27" s="31"/>
+      <c r="L27" s="29"/>
     </row>
     <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
@@ -1669,7 +1658,7 @@
         <v>7</v>
       </c>
       <c r="F28" s="21"/>
-      <c r="L28" s="31"/>
+      <c r="L28" s="29"/>
     </row>
     <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
@@ -1688,7 +1677,7 @@
         <v>7</v>
       </c>
       <c r="F29" s="21"/>
-      <c r="L29" s="31"/>
+      <c r="L29" s="29"/>
     </row>
     <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
@@ -1825,7 +1814,7 @@
         <v>57</v>
       </c>
       <c r="B38" s="12"/>
-      <c r="C38" s="33" t="s">
+      <c r="C38" s="31" t="s">
         <v>4</v>
       </c>
       <c r="D38" s="12"/>
@@ -1887,7 +1876,7 @@
       <c r="B42" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="C42" s="33" t="s">
+      <c r="C42" s="31" t="s">
         <v>4</v>
       </c>
       <c r="D42" s="12"/>
@@ -1903,7 +1892,7 @@
       <c r="B43" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="C43" s="33" t="s">
+      <c r="C43" s="31" t="s">
         <v>4</v>
       </c>
       <c r="D43" s="12"/>
@@ -1919,7 +1908,7 @@
       <c r="B44" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="C44" s="33" t="s">
+      <c r="C44" s="31" t="s">
         <v>4</v>
       </c>
       <c r="D44" s="12"/>
@@ -1935,7 +1924,7 @@
       <c r="B45" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C45" s="33" t="s">
+      <c r="C45" s="31" t="s">
         <v>4</v>
       </c>
       <c r="D45" s="12"/>
@@ -1947,7 +1936,7 @@
     <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="12"/>
       <c r="B46" s="12"/>
-      <c r="C46" s="33" t="s">
+      <c r="C46" s="31" t="s">
         <v>4</v>
       </c>
       <c r="D46" s="12"/>
@@ -1961,7 +1950,7 @@
       <c r="B47" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="F47" s="32" t="s">
+      <c r="F47" s="30" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2020,16 +2009,16 @@
       <c r="F50" s="7"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="28" t="s">
+      <c r="A51" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="B51" s="28" t="s">
+      <c r="B51" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="C51" s="34"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="28"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="26"/>
     </row>
     <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
@@ -2047,7 +2036,7 @@
       <c r="E52" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F52" s="38" t="s">
+      <c r="F52" s="35" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2067,49 +2056,53 @@
       <c r="E53" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F53" s="38"/>
+      <c r="F53" s="35"/>
     </row>
     <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="25" t="s">
+      <c r="A54" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B54" s="25" t="s">
+      <c r="B54" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="C54" s="25"/>
-      <c r="D54" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E54" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="F54" s="26" t="s">
+      <c r="C54" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" s="34" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="29" t="s">
+      <c r="A55" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="B55" s="29" t="s">
+      <c r="B55" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="C55" s="29"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="30"/>
+      <c r="C55" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="28"/>
     </row>
     <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="36" t="s">
+      <c r="A56" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="B56" s="36"/>
-      <c r="C56" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="D56" s="36"/>
-      <c r="E56" s="36"/>
-      <c r="F56" s="37"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="34"/>
     </row>
     <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
@@ -2126,22 +2119,28 @@
       </c>
     </row>
     <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="36" t="s">
+      <c r="A58" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="B58" s="36"/>
-      <c r="C58" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="D58" s="36"/>
-      <c r="E58" s="36"/>
-      <c r="F58" s="37"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
+      <c r="B58" s="33"/>
+      <c r="C58" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" s="33"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="34"/>
+    </row>
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="F59" s="5" t="s">
+      <c r="B59" s="33"/>
+      <c r="C59" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" s="33"/>
+      <c r="E59" s="33"/>
+      <c r="F59" s="34" t="s">
         <v>149</v>
       </c>
       <c r="G59" s="1" t="s">
@@ -2149,52 +2148,70 @@
       </c>
     </row>
     <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="36" t="s">
+      <c r="A60" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="B60" s="36" t="s">
+      <c r="B60" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="C60" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="D60" s="36"/>
-      <c r="E60" s="36"/>
-      <c r="F60" s="37"/>
+      <c r="C60" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" s="33"/>
+      <c r="E60" s="33"/>
+      <c r="F60" s="34"/>
     </row>
     <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="36" t="s">
+      <c r="A61" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="B61" s="36" t="s">
+      <c r="B61" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="C61" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="D61" s="36"/>
-      <c r="E61" s="36"/>
-      <c r="F61" s="37"/>
-    </row>
-    <row r="62" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
+      <c r="C61" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" s="33"/>
+      <c r="E61" s="33"/>
+      <c r="F61" s="34"/>
+    </row>
+    <row r="62" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="F62" s="5" t="s">
+      <c r="B62" s="33"/>
+      <c r="C62" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" s="33"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="34" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
+    <row r="63" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="F63" s="35" t="s">
+      <c r="B63" s="33"/>
+      <c r="C63" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" s="33"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="34" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>150</v>
+      </c>
       <c r="B64" s="3" t="s">
-        <v>27</v>
+        <v>151</v>
+      </c>
+      <c r="C64" s="24" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/работа.xlsx
+++ b/работа.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="156">
   <si>
     <t>процесс</t>
   </si>
@@ -518,6 +518,18 @@
   </si>
   <si>
     <t xml:space="preserve">конечные точки  post, update </t>
+  </si>
+  <si>
+    <t>email module</t>
+  </si>
+  <si>
+    <t>модуль с помощью которого можно отправлять письма на почту</t>
+  </si>
+  <si>
+    <t>контекст module</t>
+  </si>
+  <si>
+    <t>модуль для создание динамического контента новости и тд</t>
   </si>
 </sst>
 </file>
@@ -1146,10 +1158,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:L64"/>
+  <dimension ref="A1:L66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2058,7 +2070,7 @@
       </c>
       <c r="F53" s="35"/>
     </row>
-    <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="33" t="s">
         <v>35</v>
       </c>
@@ -2085,7 +2097,7 @@
       <c r="B55" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="C55" s="24" t="s">
+      <c r="C55" s="27" t="s">
         <v>56</v>
       </c>
       <c r="D55" s="27"/>
@@ -2203,15 +2215,36 @@
         <v>145</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="C64" s="24" t="s">
+      <c r="C64" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" s="33"/>
+      <c r="E64" s="33"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C65" s="24" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -2237,7 +2270,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/работа.xlsx
+++ b/работа.xlsx
@@ -13,7 +13,7 @@
     <sheet name="Лист1" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">общее!$C$1:$C$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">общее!$C$1:$C$66</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="156">
   <si>
     <t>процесс</t>
   </si>
@@ -423,9 +423,6 @@
     <t>support router</t>
   </si>
   <si>
-    <t>обычный router  + categories save(many to many)</t>
-  </si>
-  <si>
     <t>chat router</t>
   </si>
   <si>
@@ -530,6 +527,9 @@
   </si>
   <si>
     <t>модуль для создание динамического контента новости и тд</t>
+  </si>
+  <si>
+    <t>обычный router  + categories save(many to many) + content-text</t>
   </si>
 </sst>
 </file>
@@ -1161,7 +1161,7 @@
   <dimension ref="A1:L66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1837,10 +1837,10 @@
     </row>
     <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>4</v>
@@ -1851,10 +1851,10 @@
     </row>
     <row r="40" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B40" s="12" t="s">
         <v>122</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>123</v>
       </c>
       <c r="C40" s="12" t="s">
         <v>4</v>
@@ -1862,15 +1862,15 @@
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
       <c r="F40" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B41" s="12" t="s">
         <v>124</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>125</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>4</v>
@@ -1878,15 +1878,15 @@
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
       <c r="F41" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B42" s="12" t="s">
         <v>126</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>127</v>
       </c>
       <c r="C42" s="31" t="s">
         <v>4</v>
@@ -1894,7 +1894,7 @@
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
       <c r="F42" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -1915,10 +1915,10 @@
     </row>
     <row r="44" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B44" s="12" t="s">
         <v>131</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>132</v>
       </c>
       <c r="C44" s="31" t="s">
         <v>4</v>
@@ -1926,7 +1926,7 @@
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
       <c r="F44" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -1957,13 +1957,13 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F47" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -2095,7 +2095,7 @@
         <v>119</v>
       </c>
       <c r="B55" s="27" t="s">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="C55" s="27" t="s">
         <v>56</v>
@@ -2106,7 +2106,7 @@
     </row>
     <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B56" s="33"/>
       <c r="C56" s="33" t="s">
@@ -2127,12 +2127,12 @@
       <c r="D57" s="12"/>
       <c r="E57" s="12"/>
       <c r="F57" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B58" s="33"/>
       <c r="C58" s="33" t="s">
@@ -2144,7 +2144,7 @@
     </row>
     <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B59" s="33"/>
       <c r="C59" s="33" t="s">
@@ -2153,7 +2153,7 @@
       <c r="D59" s="33"/>
       <c r="E59" s="33"/>
       <c r="F59" s="34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>27</v>
@@ -2161,10 +2161,10 @@
     </row>
     <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="B60" s="33" t="s">
         <v>141</v>
-      </c>
-      <c r="B60" s="33" t="s">
-        <v>142</v>
       </c>
       <c r="C60" s="33" t="s">
         <v>4</v>
@@ -2175,10 +2175,10 @@
     </row>
     <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B61" s="33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C61" s="33" t="s">
         <v>4</v>
@@ -2189,7 +2189,7 @@
     </row>
     <row r="62" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B62" s="33"/>
       <c r="C62" s="33" t="s">
@@ -2198,12 +2198,12 @@
       <c r="D62" s="33"/>
       <c r="E62" s="33"/>
       <c r="F62" s="34" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B63" s="33"/>
       <c r="C63" s="33" t="s">
@@ -2212,15 +2212,15 @@
       <c r="D63" s="33"/>
       <c r="E63" s="33"/>
       <c r="F63" s="34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="B64" s="33" t="s">
         <v>150</v>
-      </c>
-      <c r="B64" s="33" t="s">
-        <v>151</v>
       </c>
       <c r="C64" s="33" t="s">
         <v>4</v>
@@ -2230,25 +2230,28 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>153</v>
       </c>
       <c r="C65" s="24" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B66" s="3" t="s">
-        <v>155</v>
+      <c r="C66" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C64">
+  <autoFilter ref="C1:C66">
     <filterColumn colId="0">
       <filters blank="1">
         <filter val="возможные баги"/>

--- a/работа.xlsx
+++ b/работа.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="общее" sheetId="1" r:id="rId1"/>
@@ -1161,7 +1161,7 @@
   <dimension ref="A1:L66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/работа.xlsx
+++ b/работа.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="общее" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="160">
   <si>
     <t>процесс</t>
   </si>
@@ -530,6 +530,18 @@
   </si>
   <si>
     <t>обычный router  + categories save(many to many) + content-text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">демон удаляет токены </t>
+  </si>
+  <si>
+    <t>авторизация переделать под agent-data</t>
+  </si>
+  <si>
+    <t>демон который будет удалять token при их просрочности каждый день в 00:00</t>
+  </si>
+  <si>
+    <t>переделать что-бы в токене хранились данные agent-data и была проверка их на сходства для защиты</t>
   </si>
 </sst>
 </file>
@@ -1158,10 +1170,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:L66"/>
+  <dimension ref="A1:L68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87"/>
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2020,14 +2032,16 @@
       </c>
       <c r="F50" s="7"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="26" t="s">
         <v>117</v>
       </c>
       <c r="B51" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="C51" s="32"/>
+      <c r="C51" s="32" t="s">
+        <v>4</v>
+      </c>
       <c r="D51" s="26"/>
       <c r="E51" s="25"/>
       <c r="F51" s="26"/>
@@ -2248,6 +2262,28 @@
       </c>
       <c r="C66" s="3" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C67" s="24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C68" s="24" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/работа.xlsx
+++ b/работа.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="161">
   <si>
     <t>процесс</t>
   </si>
@@ -535,13 +535,16 @@
     <t xml:space="preserve">демон удаляет токены </t>
   </si>
   <si>
-    <t>авторизация переделать под agent-data</t>
-  </si>
-  <si>
     <t>демон который будет удалять token при их просрочности каждый день в 00:00</t>
   </si>
   <si>
-    <t>переделать что-бы в токене хранились данные agent-data и была проверка их на сходства для защиты</t>
+    <t xml:space="preserve">авторизация переделать </t>
+  </si>
+  <si>
+    <t>доб защита от подгона токена</t>
+  </si>
+  <si>
+    <t>вопросы ответы модуль</t>
   </si>
 </sst>
 </file>
@@ -1170,10 +1173,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:L68"/>
+  <dimension ref="A1:L69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2269,21 +2272,26 @@
         <v>156</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C67" s="24" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>159</v>
       </c>
       <c r="C68" s="24" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/работа.xlsx
+++ b/работа.xlsx
@@ -1176,7 +1176,7 @@
   <dimension ref="A1:L69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/работа.xlsx
+++ b/работа.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="161">
   <si>
     <t>процесс</t>
   </si>
@@ -535,13 +535,16 @@
     <t xml:space="preserve">демон удаляет токены </t>
   </si>
   <si>
-    <t>авторизация переделать под agent-data</t>
-  </si>
-  <si>
     <t>демон который будет удалять token при их просрочности каждый день в 00:00</t>
   </si>
   <si>
-    <t>переделать что-бы в токене хранились данные agent-data и была проверка их на сходства для защиты</t>
+    <t xml:space="preserve">авторизация переделать </t>
+  </si>
+  <si>
+    <t>доб защита от подгона токена</t>
+  </si>
+  <si>
+    <t>вопросы ответы модуль</t>
   </si>
 </sst>
 </file>
@@ -1170,10 +1173,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:L68"/>
+  <dimension ref="A1:L69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2269,21 +2272,26 @@
         <v>156</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C67" s="24" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>159</v>
       </c>
       <c r="C68" s="24" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/работа.xlsx
+++ b/работа.xlsx
@@ -13,7 +13,7 @@
     <sheet name="Лист1" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">общее!$C$1:$C$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">общее!$C$1:$C$71</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="163">
   <si>
     <t>процесс</t>
   </si>
@@ -545,6 +545,12 @@
   </si>
   <si>
     <t>вопросы ответы модуль</t>
+  </si>
+  <si>
+    <t>components params update id</t>
+  </si>
+  <si>
+    <t>components params update ids</t>
   </si>
 </sst>
 </file>
@@ -1173,10 +1179,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:L69"/>
+  <dimension ref="A1:L71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2294,8 +2300,21 @@
         <v>160</v>
       </c>
     </row>
+    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="C1:C66">
+  <autoFilter ref="C1:C71">
     <filterColumn colId="0">
       <filters blank="1">
         <filter val="возможные баги"/>

--- a/работа.xlsx
+++ b/работа.xlsx
@@ -4,16 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="общее" sheetId="1" r:id="rId1"/>
     <sheet name="существует" sheetId="3" r:id="rId2"/>
-    <sheet name="текущие" sheetId="2" r:id="rId3"/>
-    <sheet name="Лист1" sheetId="4" r:id="rId4"/>
+    <sheet name="webSocket" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">общее!$C$1:$C$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">общее!$C$1:$C$70</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="162">
   <si>
     <t>процесс</t>
   </si>
@@ -542,9 +541,6 @@
   </si>
   <si>
     <t>доб защита от подгона токена</t>
-  </si>
-  <si>
-    <t>вопросы ответы модуль</t>
   </si>
   <si>
     <t>components params update id</t>
@@ -745,7 +741,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -798,7 +794,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1179,10 +1174,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:L71"/>
+  <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1219,590 +1214,590 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="21"/>
+      <c r="C2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="21"/>
+      <c r="C3" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="20"/>
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="21"/>
+      <c r="C4" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="20"/>
     </row>
     <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="21"/>
+      <c r="C5" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="21"/>
+      <c r="C6" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="20"/>
     </row>
     <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="21"/>
+      <c r="C7" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="20"/>
     </row>
     <row r="8" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="21"/>
+      <c r="C8" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="20"/>
     </row>
     <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="21"/>
+      <c r="C9" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="20"/>
     </row>
     <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="21"/>
+      <c r="C10" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="20"/>
     </row>
     <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="21"/>
+      <c r="C11" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="20"/>
     </row>
     <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="21"/>
+      <c r="C12" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="20"/>
     </row>
     <row r="13" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="21" t="s">
+      <c r="B13" s="19"/>
+      <c r="C13" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="20" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="21"/>
+      <c r="C14" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="20"/>
     </row>
     <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="21"/>
+      <c r="C15" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="20"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="20"/>
     </row>
     <row r="16" spans="1:6" s="2" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="C16" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="21"/>
+      <c r="C16" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="19"/>
+      <c r="F16" s="20"/>
     </row>
     <row r="17" spans="1:12" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="22"/>
-      <c r="G17" s="19"/>
+      <c r="C17" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="21"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="21"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="20"/>
     </row>
     <row r="19" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="21"/>
+      <c r="C19" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="20"/>
     </row>
     <row r="20" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="C20" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="21"/>
+      <c r="C20" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="20"/>
     </row>
     <row r="21" spans="1:12" ht="105" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="C21" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="20" t="s">
+      <c r="C21" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" s="21"/>
-      <c r="L21" s="29"/>
+      <c r="E21" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="20"/>
+      <c r="L21" s="28"/>
     </row>
     <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="21"/>
-      <c r="L22" s="29"/>
+      <c r="C22" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="20"/>
+      <c r="L22" s="28"/>
     </row>
     <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" s="21"/>
-      <c r="L23" s="29"/>
+      <c r="C23" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="20"/>
+      <c r="L23" s="28"/>
     </row>
     <row r="24" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" s="21" t="s">
+      <c r="C24" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="L24" s="29"/>
+      <c r="L24" s="28"/>
     </row>
     <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" s="21" t="s">
+      <c r="C25" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="L25" s="29"/>
+      <c r="L25" s="28"/>
     </row>
     <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" s="21"/>
-      <c r="L26" s="29"/>
+      <c r="C26" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="20"/>
+      <c r="L26" s="28"/>
     </row>
     <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" s="21"/>
-      <c r="L27" s="29"/>
+      <c r="C27" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="20"/>
+      <c r="L27" s="28"/>
     </row>
     <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28" s="21"/>
-      <c r="L28" s="29"/>
+      <c r="C28" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="20"/>
+      <c r="L28" s="28"/>
     </row>
     <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" s="21"/>
-      <c r="L29" s="29"/>
+      <c r="C29" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="20"/>
+      <c r="L29" s="28"/>
     </row>
     <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F30" s="21"/>
+      <c r="C30" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="20"/>
     </row>
     <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F31" s="21"/>
+      <c r="C31" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="20"/>
     </row>
     <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32" s="21"/>
+      <c r="C32" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="20"/>
     </row>
     <row r="33" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F33" s="21" t="s">
+      <c r="C33" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="20" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="20" t="s">
+      <c r="A34" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C34" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F34" s="20"/>
+      <c r="C34" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="19"/>
     </row>
     <row r="35" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
@@ -1829,16 +1824,16 @@
       <c r="F36" s="13"/>
     </row>
     <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="21" t="s">
+      <c r="B37" s="19"/>
+      <c r="C37" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="20" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1847,7 +1842,7 @@
         <v>57</v>
       </c>
       <c r="B38" s="12"/>
-      <c r="C38" s="31" t="s">
+      <c r="C38" s="30" t="s">
         <v>4</v>
       </c>
       <c r="D38" s="12"/>
@@ -1909,7 +1904,7 @@
       <c r="B42" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="C42" s="31" t="s">
+      <c r="C42" s="30" t="s">
         <v>4</v>
       </c>
       <c r="D42" s="12"/>
@@ -1925,7 +1920,7 @@
       <c r="B43" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="C43" s="31" t="s">
+      <c r="C43" s="30" t="s">
         <v>4</v>
       </c>
       <c r="D43" s="12"/>
@@ -1941,7 +1936,7 @@
       <c r="B44" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="C44" s="31" t="s">
+      <c r="C44" s="30" t="s">
         <v>4</v>
       </c>
       <c r="D44" s="12"/>
@@ -1957,7 +1952,7 @@
       <c r="B45" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C45" s="31" t="s">
+      <c r="C45" s="30" t="s">
         <v>4</v>
       </c>
       <c r="D45" s="12"/>
@@ -1969,7 +1964,7 @@
     <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="12"/>
       <c r="B46" s="12"/>
-      <c r="C46" s="31" t="s">
+      <c r="C46" s="30" t="s">
         <v>4</v>
       </c>
       <c r="D46" s="12"/>
@@ -1983,77 +1978,77 @@
       <c r="B47" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="F47" s="30" t="s">
+      <c r="F47" s="29" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="24" t="s">
+      <c r="A48" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B48" s="24" t="s">
+      <c r="B48" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="24" t="s">
+      <c r="C48" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D48" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E48" s="24" t="s">
+      <c r="D48" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="23" t="s">
         <v>7</v>
       </c>
       <c r="F48" s="6"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="24" t="s">
+      <c r="A49" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B49" s="24" t="s">
+      <c r="B49" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C49" s="24" t="s">
+      <c r="C49" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D49" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E49" s="24" t="s">
+      <c r="D49" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="23" t="s">
         <v>7</v>
       </c>
       <c r="F49" s="6"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="24" t="s">
+      <c r="A50" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="B50" s="24" t="s">
+      <c r="B50" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C50" s="24" t="s">
+      <c r="C50" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="D50" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E50" s="24" t="s">
+      <c r="D50" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="23" t="s">
         <v>7</v>
       </c>
       <c r="F50" s="7"/>
     </row>
     <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="26" t="s">
+      <c r="A51" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="B51" s="26" t="s">
+      <c r="B51" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="C51" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D51" s="26"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="26"/>
+      <c r="C51" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="25"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="25"/>
     </row>
     <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
@@ -2071,7 +2066,7 @@
       <c r="E52" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F52" s="35" t="s">
+      <c r="F52" s="34" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2091,53 +2086,53 @@
       <c r="E53" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F53" s="35"/>
+      <c r="F53" s="34"/>
     </row>
     <row r="54" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="33" t="s">
+      <c r="A54" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="B54" s="33" t="s">
+      <c r="B54" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C54" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D54" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="E54" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="F54" s="34" t="s">
+      <c r="C54" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" s="33" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="27" t="s">
+      <c r="A55" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="B55" s="27" t="s">
+      <c r="B55" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="C55" s="27" t="s">
+      <c r="C55" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="28"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="27"/>
     </row>
     <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="33" t="s">
+      <c r="A56" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="B56" s="33"/>
-      <c r="C56" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="34"/>
+      <c r="B56" s="32"/>
+      <c r="C56" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="33"/>
     </row>
     <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
@@ -2154,28 +2149,28 @@
       </c>
     </row>
     <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="33" t="s">
+      <c r="A58" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="B58" s="33"/>
-      <c r="C58" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D58" s="33"/>
-      <c r="E58" s="33"/>
-      <c r="F58" s="34"/>
+      <c r="B58" s="32"/>
+      <c r="C58" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="33"/>
     </row>
     <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="33" t="s">
+      <c r="A59" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="B59" s="33"/>
-      <c r="C59" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D59" s="33"/>
-      <c r="E59" s="33"/>
-      <c r="F59" s="34" t="s">
+      <c r="B59" s="32"/>
+      <c r="C59" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" s="32"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="33" t="s">
         <v>148</v>
       </c>
       <c r="G59" s="1" t="s">
@@ -2183,73 +2178,73 @@
       </c>
     </row>
     <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="33" t="s">
+      <c r="A60" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="B60" s="33" t="s">
+      <c r="B60" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="C60" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D60" s="33"/>
-      <c r="E60" s="33"/>
-      <c r="F60" s="34"/>
+      <c r="C60" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" s="32"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="33"/>
     </row>
     <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="33" t="s">
+      <c r="A61" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="B61" s="33" t="s">
+      <c r="B61" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="C61" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D61" s="33"/>
-      <c r="E61" s="33"/>
-      <c r="F61" s="34"/>
+      <c r="C61" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="33"/>
     </row>
     <row r="62" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="33" t="s">
+      <c r="A62" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="B62" s="33"/>
-      <c r="C62" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D62" s="33"/>
-      <c r="E62" s="33"/>
-      <c r="F62" s="34" t="s">
+      <c r="B62" s="32"/>
+      <c r="C62" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" s="32"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="33" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="33" t="s">
+      <c r="A63" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="B63" s="33"/>
-      <c r="C63" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D63" s="33"/>
-      <c r="E63" s="33"/>
-      <c r="F63" s="34" t="s">
+      <c r="B63" s="32"/>
+      <c r="C63" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="33" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="33" t="s">
+      <c r="A64" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="B64" s="33" t="s">
+      <c r="B64" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="C64" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D64" s="33"/>
-      <c r="E64" s="33"/>
+      <c r="C64" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
@@ -2258,7 +2253,7 @@
       <c r="B65" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C65" s="24" t="s">
+      <c r="C65" s="23" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2280,7 +2275,7 @@
       <c r="B67" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C67" s="24" t="s">
+      <c r="C67" s="23" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2291,30 +2286,25 @@
       <c r="B68" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C68" s="24" t="s">
+      <c r="C68" s="23" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C69" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C70" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
-        <v>162</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C71">
+  <autoFilter ref="C1:C70">
     <filterColumn colId="0">
       <filters blank="1">
         <filter val="возможные баги"/>
@@ -2335,8 +2325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2431,78 +2421,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="26" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.28515625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="55.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="9"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2"/>
-      <c r="F2"/>
-    </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3"/>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-    </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5"/>
-      <c r="F5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
       <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>

--- a/работа.xlsx
+++ b/работа.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="общее" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="163">
   <si>
     <t>процесс</t>
   </si>
@@ -547,6 +547,9 @@
   </si>
   <si>
     <t>components params update ids</t>
+  </si>
+  <si>
+    <t>доработать поиск support по категории type support и создание в support категории type support</t>
   </si>
 </sst>
 </file>
@@ -1176,8 +1179,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B98" sqref="B98"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1978,6 +1981,9 @@
       <c r="B47" s="3" t="s">
         <v>134</v>
       </c>
+      <c r="C47" s="23" t="s">
+        <v>56</v>
+      </c>
       <c r="F47" s="29" t="s">
         <v>147</v>
       </c>
@@ -1990,7 +1996,7 @@
         <v>27</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="D48" s="23" t="s">
         <v>7</v>
@@ -2008,7 +2014,7 @@
         <v>28</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="D49" s="23" t="s">
         <v>7</v>
@@ -2108,7 +2114,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
         <v>119</v>
       </c>
@@ -2116,11 +2122,13 @@
         <v>155</v>
       </c>
       <c r="C55" s="26" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="D55" s="26"/>
       <c r="E55" s="26"/>
-      <c r="F55" s="27"/>
+      <c r="F55" s="27" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="32" t="s">
@@ -2423,8 +2431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62:B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/работа.xlsx
+++ b/работа.xlsx
@@ -549,7 +549,7 @@
     <t>components params update ids</t>
   </si>
   <si>
-    <t>доработать поиск support по категории type support и создание в support категории type support</t>
+    <t>доработать поиск support по категории type</t>
   </si>
 </sst>
 </file>
@@ -1180,7 +1180,7 @@
   <dimension ref="A1:L70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+      <selection activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2114,7 +2114,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
         <v>119</v>
       </c>

--- a/работа.xlsx
+++ b/работа.xlsx
@@ -549,7 +549,7 @@
     <t>components params update ids</t>
   </si>
   <si>
-    <t>доработать поиск support по категории type</t>
+    <t>доработать поиск support по категории type и поле title</t>
   </si>
 </sst>
 </file>
@@ -1180,7 +1180,7 @@
   <dimension ref="A1:L70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E95" sqref="E95"/>
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2114,7 +2114,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
         <v>119</v>
       </c>

--- a/работа.xlsx
+++ b/работа.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="169">
   <si>
     <t>процесс</t>
   </si>
@@ -550,6 +550,24 @@
   </si>
   <si>
     <t>доработать поиск support по категории type и поле title</t>
+  </si>
+  <si>
+    <t>users  if admin</t>
+  </si>
+  <si>
+    <t>конечная точка вернет true если у users есть права в админ панель или false если нету или нету токена (задача для фронта)</t>
+  </si>
+  <si>
+    <t>router if user</t>
+  </si>
+  <si>
+    <t>получить все router по правам users</t>
+  </si>
+  <si>
+    <t xml:space="preserve">баг  </t>
+  </si>
+  <si>
+    <t>query Запрос символ :</t>
   </si>
 </sst>
 </file>
@@ -1177,10 +1195,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:L70"/>
+  <dimension ref="A1:L73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2254,7 +2272,7 @@
       <c r="D64" s="32"/>
       <c r="E64" s="32"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>151</v>
       </c>
@@ -2265,7 +2283,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>153</v>
       </c>
@@ -2276,7 +2294,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>156</v>
       </c>
@@ -2287,7 +2305,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>158</v>
       </c>
@@ -2298,7 +2316,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>160</v>
       </c>
@@ -2306,10 +2324,37 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>161</v>
       </c>
+    </row>
+    <row r="71" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="8"/>
+      <c r="B73" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="C1:C70">

--- a/работа.xlsx
+++ b/работа.xlsx
@@ -12,7 +12,7 @@
     <sheet name="webSocket" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">общее!$C$1:$C$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">общее!$C$1:$C$73</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="168">
   <si>
     <t>процесс</t>
   </si>
@@ -93,9 +93,6 @@
   </si>
   <si>
     <t>выводит все пользователей + пагинация</t>
-  </si>
-  <si>
-    <t>Требуется</t>
   </si>
   <si>
     <t>требуется: ввести email password создается токен для user    return:  token, nik, email</t>
@@ -549,9 +546,6 @@
     <t>components params update ids</t>
   </si>
   <si>
-    <t>доработать поиск support по категории type и поле title</t>
-  </si>
-  <si>
     <t>users  if admin</t>
   </si>
   <si>
@@ -564,10 +558,13 @@
     <t>получить все router по правам users</t>
   </si>
   <si>
-    <t xml:space="preserve">баг  </t>
-  </si>
-  <si>
     <t>query Запрос символ :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">готово  </t>
+  </si>
+  <si>
+    <t>поиск по id support где content-html visible</t>
   </si>
 </sst>
 </file>
@@ -1198,7 +1195,7 @@
   <dimension ref="A1:L73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1231,7 +1228,7 @@
         <v>6</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -1275,7 +1272,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>4</v>
@@ -1344,10 +1341,10 @@
     </row>
     <row r="8" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>4</v>
@@ -1365,7 +1362,7 @@
         <v>14</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>4</v>
@@ -1416,10 +1413,10 @@
     </row>
     <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="19" t="s">
         <v>29</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>30</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>4</v>
@@ -1434,7 +1431,7 @@
     </row>
     <row r="13" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B13" s="19"/>
       <c r="C13" s="19" t="s">
@@ -1443,15 +1440,15 @@
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
       <c r="F13" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="19" t="s">
         <v>74</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>75</v>
       </c>
       <c r="C14" s="19" t="s">
         <v>4</v>
@@ -1462,10 +1459,10 @@
     </row>
     <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="19" t="s">
         <v>76</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>77</v>
       </c>
       <c r="C15" s="19" t="s">
         <v>4</v>
@@ -1476,10 +1473,10 @@
     </row>
     <row r="16" spans="1:6" s="2" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="19" t="s">
         <v>88</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>89</v>
       </c>
       <c r="C16" s="19" t="s">
         <v>4</v>
@@ -1495,7 +1492,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C17" s="19" t="s">
         <v>4</v>
@@ -1511,7 +1508,7 @@
     </row>
     <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B18" s="19"/>
       <c r="C18" s="19" t="s">
@@ -1527,10 +1524,10 @@
     </row>
     <row r="19" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C19" s="19" t="s">
         <v>4</v>
@@ -1541,10 +1538,10 @@
     </row>
     <row r="20" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C20" s="19" t="s">
         <v>4</v>
@@ -1555,16 +1552,16 @@
     </row>
     <row r="21" spans="1:12" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C21" s="19" t="s">
         <v>4</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E21" s="19" t="s">
         <v>7</v>
@@ -1574,10 +1571,10 @@
     </row>
     <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="19" t="s">
         <v>31</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>32</v>
       </c>
       <c r="C22" s="19" t="s">
         <v>4</v>
@@ -1593,10 +1590,10 @@
     </row>
     <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="19" t="s">
         <v>33</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>34</v>
       </c>
       <c r="C23" s="19" t="s">
         <v>4</v>
@@ -1612,10 +1609,10 @@
     </row>
     <row r="24" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" s="19" t="s">
         <v>4</v>
@@ -1627,17 +1624,17 @@
         <v>7</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L24" s="28"/>
     </row>
     <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="19" t="s">
-        <v>40</v>
-      </c>
       <c r="C25" s="19" t="s">
         <v>4</v>
       </c>
@@ -1648,16 +1645,16 @@
         <v>7</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L25" s="28"/>
     </row>
     <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="19" t="s">
         <v>41</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>42</v>
       </c>
       <c r="C26" s="19" t="s">
         <v>4</v>
@@ -1673,10 +1670,10 @@
     </row>
     <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C27" s="19" t="s">
         <v>4</v>
@@ -1692,10 +1689,10 @@
     </row>
     <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C28" s="19" t="s">
         <v>4</v>
@@ -1711,10 +1708,10 @@
     </row>
     <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C29" s="19" t="s">
         <v>4</v>
@@ -1730,10 +1727,10 @@
     </row>
     <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C30" s="19" t="s">
         <v>4</v>
@@ -1748,10 +1745,10 @@
     </row>
     <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C31" s="19" t="s">
         <v>4</v>
@@ -1766,10 +1763,10 @@
     </row>
     <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C32" s="19" t="s">
         <v>4</v>
@@ -1784,10 +1781,10 @@
     </row>
     <row r="33" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C33" s="19" t="s">
         <v>4</v>
@@ -1799,15 +1796,15 @@
         <v>7</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C34" s="19" t="s">
         <v>4</v>
@@ -1822,7 +1819,7 @@
     </row>
     <row r="35" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B35" s="12"/>
       <c r="C35" s="12" t="s">
@@ -1834,7 +1831,7 @@
     </row>
     <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B36" s="12"/>
       <c r="C36" s="12" t="s">
@@ -1846,7 +1843,7 @@
     </row>
     <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B37" s="19"/>
       <c r="C37" s="19" t="s">
@@ -1855,12 +1852,12 @@
       <c r="D37" s="19"/>
       <c r="E37" s="19"/>
       <c r="F37" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B38" s="12"/>
       <c r="C38" s="30" t="s">
@@ -1869,15 +1866,15 @@
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
       <c r="F38" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>4</v>
@@ -1888,10 +1885,10 @@
     </row>
     <row r="40" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B40" s="12" t="s">
         <v>121</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>122</v>
       </c>
       <c r="C40" s="12" t="s">
         <v>4</v>
@@ -1899,15 +1896,15 @@
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
       <c r="F40" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B41" s="12" t="s">
         <v>123</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>124</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>4</v>
@@ -1915,15 +1912,15 @@
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
       <c r="F41" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B42" s="12" t="s">
         <v>125</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>126</v>
       </c>
       <c r="C42" s="30" t="s">
         <v>4</v>
@@ -1931,15 +1928,15 @@
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
       <c r="F42" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" s="12" t="s">
         <v>68</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>69</v>
       </c>
       <c r="C43" s="30" t="s">
         <v>4</v>
@@ -1947,15 +1944,15 @@
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
       <c r="F43" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B44" s="12" t="s">
         <v>130</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>131</v>
       </c>
       <c r="C44" s="30" t="s">
         <v>4</v>
@@ -1963,15 +1960,15 @@
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
       <c r="F44" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C45" s="30" t="s">
         <v>4</v>
@@ -1979,7 +1976,7 @@
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
       <c r="F45" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -1994,27 +1991,27 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F47" s="29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D48" s="23" t="s">
         <v>7</v>
@@ -2026,13 +2023,13 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D49" s="23" t="s">
         <v>7</v>
@@ -2044,13 +2041,13 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D50" s="23" t="s">
         <v>7</v>
@@ -2062,10 +2059,10 @@
     </row>
     <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="B51" s="25" t="s">
         <v>117</v>
-      </c>
-      <c r="B51" s="25" t="s">
-        <v>118</v>
       </c>
       <c r="C51" s="31" t="s">
         <v>4</v>
@@ -2076,14 +2073,14 @@
     </row>
     <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="C52" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C52" s="8" t="s">
-        <v>64</v>
-      </c>
       <c r="D52" s="8" t="s">
         <v>7</v>
       </c>
@@ -2091,18 +2088,18 @@
         <v>7</v>
       </c>
       <c r="F52" s="34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B53" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B53" s="8" t="s">
-        <v>66</v>
-      </c>
       <c r="C53" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>7</v>
@@ -2114,10 +2111,10 @@
     </row>
     <row r="54" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B54" s="32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C54" s="32" t="s">
         <v>4</v>
@@ -2129,28 +2126,26 @@
         <v>7</v>
       </c>
       <c r="F54" s="33" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="C55" s="26" t="s">
-        <v>23</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="C55" s="26"/>
       <c r="D55" s="26"/>
       <c r="E55" s="26"/>
       <c r="F55" s="27" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B56" s="32"/>
       <c r="C56" s="32" t="s">
@@ -2162,7 +2157,7 @@
     </row>
     <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57" s="12"/>
       <c r="C57" s="12" t="s">
@@ -2171,12 +2166,12 @@
       <c r="D57" s="12"/>
       <c r="E57" s="12"/>
       <c r="F57" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B58" s="32"/>
       <c r="C58" s="32" t="s">
@@ -2188,7 +2183,7 @@
     </row>
     <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B59" s="32"/>
       <c r="C59" s="32" t="s">
@@ -2197,18 +2192,18 @@
       <c r="D59" s="32"/>
       <c r="E59" s="32"/>
       <c r="F59" s="33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="B60" s="32" t="s">
         <v>140</v>
-      </c>
-      <c r="B60" s="32" t="s">
-        <v>141</v>
       </c>
       <c r="C60" s="32" t="s">
         <v>4</v>
@@ -2219,10 +2214,10 @@
     </row>
     <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B61" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C61" s="32" t="s">
         <v>4</v>
@@ -2233,7 +2228,7 @@
     </row>
     <row r="62" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B62" s="32"/>
       <c r="C62" s="32" t="s">
@@ -2242,12 +2237,12 @@
       <c r="D62" s="32"/>
       <c r="E62" s="32"/>
       <c r="F62" s="33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="32" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B63" s="32"/>
       <c r="C63" s="32" t="s">
@@ -2256,15 +2251,15 @@
       <c r="D63" s="32"/>
       <c r="E63" s="32"/>
       <c r="F63" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="B64" s="32" t="s">
         <v>149</v>
-      </c>
-      <c r="B64" s="32" t="s">
-        <v>150</v>
       </c>
       <c r="C64" s="32" t="s">
         <v>4</v>
@@ -2274,21 +2269,21 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B65" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="C65" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>154</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>4</v>
@@ -2296,29 +2291,29 @@
     </row>
     <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B67" s="3" t="s">
-        <v>157</v>
-      </c>
       <c r="C67" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B68" s="3" t="s">
-        <v>159</v>
-      </c>
       <c r="C68" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>4</v>
@@ -2326,43 +2321,42 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="8" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C70">
+  <autoFilter ref="C1:C73">
     <filterColumn colId="0">
       <filters blank="1">
         <filter val="возможные баги"/>
         <filter val="запланировано"/>
-        <filter val="Требуется"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -2408,15 +2402,15 @@
         <v>3</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>83</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -2424,47 +2418,47 @@
         <v>11</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>86</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>115</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2488,18 +2482,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>104</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" t="s">
         <v>112</v>
-      </c>
-      <c r="B3" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/работа.xlsx
+++ b/работа.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="169">
   <si>
     <t>процесс</t>
   </si>
@@ -565,6 +565,9 @@
   </si>
   <si>
     <t>поиск по id support где content-html visible</t>
+  </si>
+  <si>
+    <t>требует тестов</t>
   </si>
 </sst>
 </file>
@@ -1195,7 +1198,7 @@
   <dimension ref="A1:L73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2330,6 +2333,9 @@
       </c>
       <c r="B71" s="3" t="s">
         <v>162</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">

--- a/работа.xlsx
+++ b/работа.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="172">
   <si>
     <t>процесс</t>
   </si>
@@ -568,6 +568,15 @@
   </si>
   <si>
     <t>требует тестов</t>
+  </si>
+  <si>
+    <t>модуль меню для фронта ссылки для видимости контента по правам</t>
+  </si>
+  <si>
+    <t>menu router</t>
+  </si>
+  <si>
+    <t>меню бд: link,name, parent, id_router</t>
   </si>
 </sst>
 </file>
@@ -1195,10 +1204,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:L73"/>
+  <dimension ref="A1:L74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+      <selection activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2270,7 +2279,7 @@
       <c r="D64" s="32"/>
       <c r="E64" s="32"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>150</v>
       </c>
@@ -2281,7 +2290,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>152</v>
       </c>
@@ -2292,7 +2301,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>155</v>
       </c>
@@ -2300,10 +2309,10 @@
         <v>156</v>
       </c>
       <c r="C67" s="23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>157</v>
       </c>
@@ -2314,7 +2323,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>159</v>
       </c>
@@ -2322,12 +2331,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C70" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>161</v>
       </c>
@@ -2338,15 +2350,18 @@
         <v>168</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>163</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C72" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="8" t="s">
         <v>165</v>
@@ -2356,6 +2371,20 @@
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C74" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>171</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="C1:C73">
